--- a/report/excelReport/CloudAPITestCase.xlsx
+++ b/report/excelReport/CloudAPITestCase.xlsx
@@ -675,7 +675,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -720,6 +720,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2404,8 +2410,16 @@
           <t>success</t>
         </is>
       </c>
-      <c r="L2" s="8" t="n"/>
-      <c r="M2" s="9" t="n"/>
+      <c r="L2" s="16" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M2" s="17" t="inlineStr">
+        <is>
+          <t>Zt</t>
+        </is>
+      </c>
     </row>
     <row r="3" customFormat="1" s="1">
       <c r="D3" s="2" t="n"/>
